--- a/biology/Médecine/Exostose_subunguéale/Exostose_subunguéale.xlsx
+++ b/biology/Médecine/Exostose_subunguéale/Exostose_subunguéale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exostose_subungu%C3%A9ale</t>
+          <t>Exostose_subunguéale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une exostose subunguéale est une projection osseuse qui provient de la surface dorsale de la phalange distale, le plus souvent de l'hallux (le gros orteil)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une exostose subunguéale est une projection osseuse qui provient de la surface dorsale de la phalange distale, le plus souvent de l'hallux (le gros orteil). 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exostose_subungu%C3%A9ale</t>
+          <t>Exostose_subunguéale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exostose subunguéale est souvent douloureuse du fait de la pression appliquée sur le lit et la plaque de l'ongle. Elle peut induire la destruction du lit de l'ongle[2].
-Ces lésions ne sont pas de véritables ostéochondromes, mais plutôt une métaplasie réactive du cartilage. La raison pour laquelle cela se produit sur la face dorsale est que le périoste y est plus lâche alors qu'il est fortement adhérent au niveau palmaire[3]. L'exostose subunguéale est donc à distinguer de l'ostéochondrome subunguéal[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exostose subunguéale est souvent douloureuse du fait de la pression appliquée sur le lit et la plaque de l'ongle. Elle peut induire la destruction du lit de l'ongle.
+Ces lésions ne sont pas de véritables ostéochondromes, mais plutôt une métaplasie réactive du cartilage. La raison pour laquelle cela se produit sur la face dorsale est que le périoste y est plus lâche alors qu'il est fortement adhérent au niveau palmaire. L'exostose subunguéale est donc à distinguer de l'ostéochondrome subunguéal.
 Des mélanomes malins subunguéal peuvent également survenir chez les canidés.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exostose_subungu%C3%A9ale</t>
+          <t>Exostose_subunguéale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une excision chirurgicale est généralement efficace.
 </t>
